--- a/河北/导出模板/结果.xlsx
+++ b/河北/导出模板/结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\河北\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC835CE5-BE67-4FF3-BBF9-468204BD647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{745910F2-CB89-4F1B-8A6F-7DB95322FCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" xr2:uid="{E21372B0-58F6-44AA-9304-54598FB70167}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" xr2:uid="{6D27188E-AD1E-4AB0-B533-01D3164F33B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-02" sheetId="3" r:id="rId1"/>
@@ -145,74 +145,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -232,7 +164,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -520,7 +452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C06823-2D5A-4AAF-98D3-4AD57EE64D2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BA612A-0FFD-455B-8F38-0600CB3DC5AC}">
   <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -624,79 +556,79 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V2">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W2">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -710,79 +642,79 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V3">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W3">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -824,79 +756,79 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V6">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W6">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -910,79 +842,79 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V7">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W7">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1136,79 +1068,79 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V18">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W18">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -1222,79 +1154,79 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V19">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W19">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -1420,79 +1352,79 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V28">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W28">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -1506,79 +1438,79 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V29">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W29">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -1620,79 +1552,79 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V32">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W32">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -1706,79 +1638,79 @@
         <v>7</v>
       </c>
       <c r="D33">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V33">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W33">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -1932,79 +1864,79 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V44">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W44">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -2018,79 +1950,79 @@
         <v>7</v>
       </c>
       <c r="D45">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V45">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W45">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -2212,7 +2144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0121AA58-CA2F-46DC-8572-908CA32D8A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1082B970-061F-4A4F-9A0C-A76A978425B8}">
   <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2316,79 +2248,79 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S2">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T2">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V2">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W2">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB2">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -2402,79 +2334,79 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S3">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T3">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V3">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W3">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB3">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -2516,79 +2448,79 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S6">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T6">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V6">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W6">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB6">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -2602,79 +2534,79 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S7">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T7">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V7">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W7">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB7">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -2828,79 +2760,79 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S18">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T18">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V18">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W18">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB18">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -2914,79 +2846,79 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S19">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T19">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V19">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W19">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB19">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3112,79 +3044,79 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S28">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T28">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V28">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W28">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB28">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -3198,79 +3130,79 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S29">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T29">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V29">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W29">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB29">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3312,79 +3244,79 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S32">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T32">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V32">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W32">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB32">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -3398,79 +3330,79 @@
         <v>7</v>
       </c>
       <c r="D33">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S33">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T33">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V33">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W33">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB33">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -3624,79 +3556,79 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>779.87096774193571</v>
+        <v>872.61290322580658</v>
       </c>
       <c r="E44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="F44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="G44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="H44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="I44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="J44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="K44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="L44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="M44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="N44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="O44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="P44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="Q44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="R44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="S44">
-        <v>20.493010752688175</v>
+        <v>23.25337096774194</v>
       </c>
       <c r="T44">
-        <v>13.981317204301076</v>
+        <v>17.83210685483871</v>
       </c>
       <c r="U44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="V44">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="W44">
-        <v>76.718817204301089</v>
+        <v>87.568774193548407</v>
       </c>
       <c r="X44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Y44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="Z44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AA44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
       <c r="AB44">
-        <v>58.439784946236564</v>
+        <v>61.465255376344089</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -3710,79 +3642,79 @@
         <v>7</v>
       </c>
       <c r="D45">
-        <v>831.68663467902036</v>
+        <v>838.10209714982818</v>
       </c>
       <c r="E45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="F45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="G45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="H45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="I45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="J45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="K45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="L45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="M45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="N45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="O45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="P45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="Q45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="R45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="S45">
-        <v>892.04999999999984</v>
+        <v>892.04999999999961</v>
       </c>
       <c r="T45">
-        <v>892.05000000000007</v>
+        <v>892.05</v>
       </c>
       <c r="U45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="V45">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="W45">
-        <v>864.32616067611787</v>
+        <v>867.76120321281098</v>
       </c>
       <c r="X45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Y45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="Z45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AA45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
       <c r="AB45">
-        <v>769.92499034020875</v>
+        <v>775.93628246353887</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -3904,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DAD3E3-C63A-4FF1-B7B4-B67C11B643F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD8E221-81B5-4684-AD69-49307CFA8860}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
